--- a/2.Editable Documentation/ISA.xlsx
+++ b/2.Editable Documentation/ISA.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\MULTICORE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\2.Editable Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8D499-7E0C-47B8-9070-8D3BEDB506F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA0BB7-E28A-4CBA-A061-7A95810F091D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
     <sheet name="u -ins" sheetId="2" r:id="rId2"/>
     <sheet name="Registers" sheetId="3" r:id="rId3"/>
+    <sheet name="ISA new" sheetId="4" r:id="rId4"/>
+    <sheet name="U-ins new" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="214">
   <si>
     <t>OPCODE</t>
   </si>
@@ -590,6 +592,93 @@
   </si>
   <si>
     <t xml:space="preserve"> WTA_sel &lt;- DR[4:0] , AC &lt;- R[R1]</t>
+  </si>
+  <si>
+    <t>LDACREG</t>
+  </si>
+  <si>
+    <t>STACREG</t>
+  </si>
+  <si>
+    <t>LDACMULTI</t>
+  </si>
+  <si>
+    <t>00000011 000xxxxx</t>
+  </si>
+  <si>
+    <t>00000101 a</t>
+  </si>
+  <si>
+    <t>00000110 000xxxxx</t>
+  </si>
+  <si>
+    <t>00000111 000xxxxx</t>
+  </si>
+  <si>
+    <t>00001000 000xxxxx</t>
+  </si>
+  <si>
+    <t>00001010 a</t>
+  </si>
+  <si>
+    <t>00001011 a</t>
+  </si>
+  <si>
+    <t>00001101 00xxxxxx</t>
+  </si>
+  <si>
+    <t>00001111 000xxxxx</t>
+  </si>
+  <si>
+    <t>00010000 000xxxxx</t>
+  </si>
+  <si>
+    <t>00010001 xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00001001</t>
+  </si>
+  <si>
+    <t>00010010 xxxxxxxx</t>
+  </si>
+  <si>
+    <t>AC &lt;- M[R1]</t>
+  </si>
+  <si>
+    <t>M[R1] &lt;- AC</t>
+  </si>
+  <si>
+    <t>Store value in AC to the given memory address in any register R1.</t>
+  </si>
+  <si>
+    <t>Load value from the given memory address in any register R1 to AC.</t>
+  </si>
+  <si>
+    <t>Load value in memory to AC.</t>
+  </si>
+  <si>
+    <t>Load value from the given memory addresses in any register R1 of each core, to AC.</t>
+  </si>
+  <si>
+    <t>BRANCHING</t>
+  </si>
+  <si>
+    <t>FETCH_4</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>DR &lt;- M , IR &lt;- M, PC &lt;- PC + 1</t>
+  </si>
+  <si>
+    <t>WTA_sel &lt;- DR[7:0]</t>
+  </si>
+  <si>
+    <t>RESET_sel &lt;- DR[3:0], R[R1] &lt;- 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC_sel &lt;- DR[7:0], R[R1] &lt;- R[R1] + 1 </t>
   </si>
 </sst>
 </file>
@@ -678,7 +767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -920,11 +1009,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1086,6 +1199,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1113,14 +1241,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86182E25-EC7A-483E-BB54-73CF54E3BA6D}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,7 +1654,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1669,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
@@ -1496,7 +1684,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1513,7 +1701,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
@@ -1528,7 +1716,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1731,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1746,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1605,7 +1793,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="70" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1622,7 +1810,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="2" t="s">
         <v>134</v>
       </c>
@@ -1637,7 +1825,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1840,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1855,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="20" t="s">
         <v>169</v>
       </c>
@@ -1682,7 +1870,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="20" t="s">
         <v>151</v>
       </c>
@@ -1697,7 +1885,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="29" t="s">
         <v>152</v>
       </c>
@@ -1730,9 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2054,7 +2240,7 @@
       <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="66" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -2111,7 +2297,7 @@
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -2132,7 +2318,7 @@
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="22" t="s">
@@ -2145,7 +2331,7 @@
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -2179,7 +2365,7 @@
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2238,7 +2424,7 @@
       <c r="C58" s="46"/>
     </row>
     <row r="59" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="67" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="32" t="s">
@@ -2302,7 +2488,7 @@
       <c r="C66" s="31"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="75" t="s">
+      <c r="A67" s="66" t="s">
         <v>151</v>
       </c>
       <c r="B67" s="25" t="s">
@@ -2336,7 +2522,7 @@
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="66" t="s">
         <v>152</v>
       </c>
       <c r="B71" s="25" t="s">
@@ -2404,7 +2590,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -2418,7 +2604,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="49" t="s">
         <v>95</v>
       </c>
@@ -2430,7 +2616,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="49" t="s">
         <v>97</v>
       </c>
@@ -2442,7 +2628,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="49" t="s">
         <v>99</v>
       </c>
@@ -2454,7 +2640,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="49" t="s">
         <v>101</v>
       </c>
@@ -2466,7 +2652,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="49" t="s">
         <v>103</v>
       </c>
@@ -2478,13 +2664,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="75">
         <v>8</v>
       </c>
       <c r="D8" s="52" t="s">
@@ -2492,31 +2678,31 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="53" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="53" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="51" t="s">
         <v>111</v>
       </c>
@@ -2528,7 +2714,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="51" t="s">
         <v>113</v>
       </c>
@@ -2540,7 +2726,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="51" t="s">
         <v>176</v>
       </c>
@@ -2552,7 +2738,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="51" t="s">
         <v>150</v>
       </c>
@@ -2564,7 +2750,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="52" t="s">
         <v>115</v>
       </c>
@@ -2576,7 +2762,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="61" t="s">
         <v>174</v>
       </c>
@@ -2596,4 +2782,960 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C21AE-6AFB-4E00-A4E0-A8F64620D317}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="76.77734375" customWidth="1"/>
+    <col min="5" max="5" width="100.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69"/>
+      <c r="B3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69"/>
+      <c r="B5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
+      <c r="B6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="64"/>
+      <c r="B12" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71"/>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71"/>
+      <c r="B17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="71"/>
+      <c r="B18" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
+      <c r="B19" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A4:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73B6321-4D66-4AEA-AB84-123E8D0581C0}">
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="83"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84"/>
+      <c r="B2" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="103"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="85"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="103"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="86"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="85"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
+      <c r="B9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="86"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="98"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="98"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="98"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="98"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="98"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="98"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="98"/>
+      <c r="B18" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="98"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="98"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="98"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="98"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="98"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="98"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="98"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="98"/>
+      <c r="B26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="98"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="98"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="47"/>
+    </row>
+    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="98"/>
+      <c r="B29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="98"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="98"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="98"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="97"/>
+      <c r="B33" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="85"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
+      <c r="B35" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="85"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="85"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="86"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="98"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="98"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="98"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="98"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="98"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="99"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="69"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="69"/>
+      <c r="B49" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="69"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="69"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="69"/>
+      <c r="B52" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="69"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="69"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="69"/>
+      <c r="B55" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="69"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="69"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="31"/>
+    </row>
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="69"/>
+      <c r="B58" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="69"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="69"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="31"/>
+    </row>
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="69"/>
+      <c r="B61" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="69"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="88"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A11:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A47:A63"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2.Editable Documentation/ISA.xlsx
+++ b/2.Editable Documentation/ISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\2.Editable Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processor Project\CCSS-Processor-Design\2.Editable Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA0BB7-E28A-4CBA-A061-7A95810F091D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58BF1B-EAE4-45AF-AF46-E8BB84FAC0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
   <si>
     <t>OPCODE</t>
   </si>
@@ -624,15 +624,6 @@
     <t>00001011 a</t>
   </si>
   <si>
-    <t>00001101 00xxxxxx</t>
-  </si>
-  <si>
-    <t>00001111 000xxxxx</t>
-  </si>
-  <si>
-    <t>00010000 000xxxxx</t>
-  </si>
-  <si>
     <t>00010001 xxxxxxxx</t>
   </si>
   <si>
@@ -642,12 +633,6 @@
     <t>00010010 xxxxxxxx</t>
   </si>
   <si>
-    <t>AC &lt;- M[R1]</t>
-  </si>
-  <si>
-    <t>M[R1] &lt;- AC</t>
-  </si>
-  <si>
     <t>Store value in AC to the given memory address in any register R1.</t>
   </si>
   <si>
@@ -679,13 +664,64 @@
   </si>
   <si>
     <t xml:space="preserve">INC_sel &lt;- DR[7:0], R[R1] &lt;- R[R1] + 1 </t>
+  </si>
+  <si>
+    <t>00010000 000xxxx</t>
+  </si>
+  <si>
+    <t>R[R1] ← 0</t>
+  </si>
+  <si>
+    <t>AC ← M[a]</t>
+  </si>
+  <si>
+    <t>AC ← M[R1]</t>
+  </si>
+  <si>
+    <t>M[a] ← AC</t>
+  </si>
+  <si>
+    <t>M[R1] ← AC</t>
+  </si>
+  <si>
+    <t>AC ← R[R1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R[R1] ← AC </t>
+  </si>
+  <si>
+    <t>AC ← 0, Z ← 0</t>
+  </si>
+  <si>
+    <t>AC ← AC + R[R1]</t>
+  </si>
+  <si>
+    <t>R[R1] ← R[R1] + 1</t>
+  </si>
+  <si>
+    <t>AC ← AC * R[R1]</t>
+  </si>
+  <si>
+    <t>AC ← AC (+) R[R1] , if AC (+) R[R1] = 0 then Z ← 1, else Z ← 0</t>
+  </si>
+  <si>
+    <t>AC ←  AC % R[R1]</t>
+  </si>
+  <si>
+    <t>00001101 00xxxxx</t>
+  </si>
+  <si>
+    <t>0001111 000xxxxx</t>
+  </si>
+  <si>
+    <t>AC ← AC / R[R1] , if AC / R[R1] = 0       then Z ← 1, else Z ← 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +788,46 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -767,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1033,11 +1109,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,27 +1282,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1241,74 +1348,152 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,15 +1815,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="82.36328125" customWidth="1"/>
     <col min="5" max="5" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>60</v>
@@ -1653,8 +1838,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="77"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1668,8 +1853,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="77"/>
       <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
@@ -1683,8 +1868,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1700,8 +1885,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="77"/>
       <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
@@ -1715,8 +1900,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="77"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1730,8 +1915,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="77"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1745,8 +1930,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1775,7 +1960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -1792,8 +1977,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="78" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1809,8 +1994,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
       <c r="B12" s="2" t="s">
         <v>134</v>
       </c>
@@ -1824,8 +2009,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="79"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1839,8 +2024,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="79"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
@@ -1854,8 +2039,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
+    <row r="15" spans="1:5" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
       <c r="B15" s="20" t="s">
         <v>169</v>
       </c>
@@ -1869,8 +2054,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
+    <row r="16" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="79"/>
       <c r="B16" s="20" t="s">
         <v>151</v>
       </c>
@@ -1884,8 +2069,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="80"/>
       <c r="B17" s="29" t="s">
         <v>152</v>
       </c>
@@ -1899,7 +2084,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
     </row>
   </sheetData>
@@ -1920,14 +2105,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -1949,12 +2134,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +2150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
         <v>22</v>
@@ -1974,7 +2159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
         <v>23</v>
@@ -1983,12 +2168,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>132</v>
       </c>
@@ -1999,7 +2184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
         <v>136</v>
@@ -2008,7 +2193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
         <v>137</v>
@@ -2017,7 +2202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>138</v>
@@ -2026,7 +2211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
         <v>139</v>
@@ -2035,7 +2220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>140</v>
@@ -2044,12 +2229,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>133</v>
       </c>
@@ -2060,7 +2245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>142</v>
@@ -2069,7 +2254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>143</v>
@@ -2078,7 +2263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>144</v>
@@ -2087,7 +2272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>145</v>
@@ -2096,7 +2281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>146</v>
@@ -2105,7 +2290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>147</v>
@@ -2114,12 +2299,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
@@ -2130,12 +2315,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
         <v>24</v>
@@ -2155,7 +2340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
         <v>30</v>
@@ -2164,7 +2349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
         <v>31</v>
@@ -2173,12 +2358,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
         <v>34</v>
@@ -2198,7 +2383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
         <v>35</v>
@@ -2207,7 +2392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
         <v>36</v>
@@ -2216,7 +2401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
         <v>37</v>
@@ -2225,7 +2410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
         <v>38</v>
@@ -2234,13 +2419,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="66" t="s">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="64" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -2250,7 +2435,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="21" t="s">
         <v>182</v>
@@ -2259,12 +2444,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="48" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>134</v>
       </c>
@@ -2275,7 +2460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
         <v>149</v>
@@ -2284,20 +2469,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
     </row>
-    <row r="44" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66" t="s">
+    <row r="44" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="64" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -2307,7 +2492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
         <v>41</v>
@@ -2316,22 +2501,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="66" t="s">
+    <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -2341,7 +2526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
       <c r="B49" s="23" t="s">
         <v>44</v>
@@ -2350,7 +2535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="20"/>
       <c r="B50" s="23" t="s">
         <v>77</v>
@@ -2359,13 +2544,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="23"/>
       <c r="C51" s="22"/>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="66" t="s">
+    <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2375,7 +2560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
       <c r="B53" s="23" t="s">
         <v>45</v>
@@ -2384,7 +2569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="B54" s="23" t="s">
         <v>78</v>
@@ -2393,12 +2578,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="20"/>
       <c r="B55" s="23"/>
       <c r="C55" s="22"/>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="33" t="s">
         <v>47</v>
@@ -2418,13 +2603,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29"/>
       <c r="B58" s="27"/>
       <c r="C58" s="46"/>
     </row>
-    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="67" t="s">
+    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="65" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="32" t="s">
@@ -2434,7 +2619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
       <c r="B60" s="33" t="s">
         <v>49</v>
@@ -2443,19 +2628,19 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
       <c r="B61" s="33"/>
       <c r="C61" s="46" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="27"/>
       <c r="C62" s="47"/>
     </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="24" t="s">
         <v>18</v>
       </c>
@@ -2466,7 +2651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="20"/>
       <c r="B64" s="21" t="s">
         <v>74</v>
@@ -2475,20 +2660,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="29"/>
       <c r="B66" s="30"/>
       <c r="C66" s="31"/>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="66" t="s">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="64" t="s">
         <v>151</v>
       </c>
       <c r="B67" s="25" t="s">
@@ -2498,7 +2683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
       <c r="B68" s="23" t="s">
         <v>162</v>
@@ -2507,7 +2692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="20"/>
       <c r="B69" s="23" t="s">
         <v>163</v>
@@ -2516,13 +2701,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="29"/>
       <c r="B70" s="58"/>
       <c r="C70" s="31"/>
     </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="66" t="s">
+    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="64" t="s">
         <v>152</v>
       </c>
       <c r="B71" s="25" t="s">
@@ -2532,7 +2717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="20"/>
       <c r="B72" s="23" t="s">
         <v>166</v>
@@ -2541,7 +2726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="20"/>
       <c r="B73" s="23" t="s">
         <v>167</v>
@@ -2550,7 +2735,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="29"/>
       <c r="B74" s="58"/>
       <c r="C74" s="31"/>
@@ -2569,15 +2754,15 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="61.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="48"/>
       <c r="B1" s="55" t="s">
         <v>89</v>
@@ -2589,8 +2774,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="81" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -2603,8 +2788,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
       <c r="B3" s="49" t="s">
         <v>95</v>
       </c>
@@ -2615,8 +2800,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="81"/>
       <c r="B4" s="49" t="s">
         <v>97</v>
       </c>
@@ -2627,8 +2812,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="81"/>
       <c r="B5" s="49" t="s">
         <v>99</v>
       </c>
@@ -2639,8 +2824,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="81"/>
       <c r="B6" s="49" t="s">
         <v>101</v>
       </c>
@@ -2651,8 +2836,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="81"/>
       <c r="B7" s="49" t="s">
         <v>103</v>
       </c>
@@ -2663,46 +2848,46 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="83">
         <v>8</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="85"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="85"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="53" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="85"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="85"/>
       <c r="B12" s="51" t="s">
         <v>111</v>
       </c>
@@ -2713,8 +2898,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="85"/>
       <c r="B13" s="51" t="s">
         <v>113</v>
       </c>
@@ -2725,8 +2910,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="85"/>
       <c r="B14" s="51" t="s">
         <v>176</v>
       </c>
@@ -2737,8 +2922,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="85"/>
       <c r="B15" s="51" t="s">
         <v>150</v>
       </c>
@@ -2749,8 +2934,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="85"/>
       <c r="B16" s="52" t="s">
         <v>115</v>
       </c>
@@ -2761,8 +2946,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="86"/>
       <c r="B17" s="61" t="s">
         <v>174</v>
       </c>
@@ -2788,307 +2973,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C21AE-6AFB-4E00-A4E0-A8F64620D317}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="76.77734375" customWidth="1"/>
-    <col min="5" max="5" width="100.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="5" max="5" width="51.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="102"/>
+      <c r="B2" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="98" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="135"/>
+      <c r="B3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="121"/>
+      <c r="B5" s="126" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="121"/>
+      <c r="B6" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="121"/>
+      <c r="B7" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="105" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="121"/>
+      <c r="B8" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="121"/>
+      <c r="B9" s="126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="134"/>
+      <c r="B10" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="122"/>
+      <c r="B11" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="123"/>
+      <c r="B12" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="113" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="113" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="121"/>
+      <c r="B15" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="121"/>
+      <c r="B16" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="121"/>
+      <c r="B17" s="130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="121"/>
+      <c r="B18" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="44" t="s">
+      <c r="D18" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="133"/>
+      <c r="B19" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
-      <c r="B19" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="38" t="s">
+      <c r="D19" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="119" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3099,7 +3284,7 @@
     <mergeCell ref="A4:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3107,21 +3292,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73B6321-4D66-4AEA-AB84-123E8D0581C0}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83"/>
+    <row r="1" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="70"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3132,58 +3317,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="101" t="s">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="93"/>
+      <c r="B2" s="73" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
-      <c r="B3" s="100"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="90"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="H3" s="103"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85"/>
-      <c r="B4" s="100"/>
+        <v>204</v>
+      </c>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="90"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" s="103"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
-      <c r="B5" s="100"/>
+      <c r="D4" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="90"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86"/>
-      <c r="B6" s="100"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="91"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
+    <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="93"/>
       <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
@@ -3194,14 +3379,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="85"/>
+    <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="90"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+    <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="90"/>
       <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
@@ -3209,17 +3394,17 @@
         <v>50</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="86"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="91"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="76" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -3232,8 +3417,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="87"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
         <v>136</v>
@@ -3242,8 +3427,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="87"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
         <v>137</v>
@@ -3252,8 +3437,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98"/>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="87"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>138</v>
@@ -3262,8 +3447,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="87"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
         <v>139</v>
@@ -3272,8 +3457,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="87"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
         <v>140</v>
@@ -3282,14 +3467,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
+    <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="87"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="87"/>
       <c r="B18" s="24" t="s">
         <v>133</v>
       </c>
@@ -3300,8 +3485,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="87"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
         <v>142</v>
@@ -3310,8 +3495,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="87"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
         <v>143</v>
@@ -3320,8 +3505,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="87"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
         <v>144</v>
@@ -3330,8 +3515,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="87"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
         <v>145</v>
@@ -3340,8 +3525,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="87"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
         <v>146</v>
@@ -3350,8 +3535,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="87"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
         <v>147</v>
@@ -3360,14 +3545,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="98"/>
+    <row r="25" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="87"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
+    <row r="26" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="87"/>
       <c r="B26" s="24" t="s">
         <v>15</v>
       </c>
@@ -3378,8 +3563,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="87"/>
       <c r="B27" s="20"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -3388,14 +3573,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="98"/>
+    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="87"/>
       <c r="B28" s="29"/>
-      <c r="C28" s="87"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="47"/>
     </row>
-    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
+    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="87"/>
       <c r="B29" s="20" t="s">
         <v>16</v>
       </c>
@@ -3406,8 +3591,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
+    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="87"/>
       <c r="B30" s="20"/>
       <c r="C30" s="33" t="s">
         <v>49</v>
@@ -3416,40 +3601,40 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
+    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="87"/>
       <c r="B31" s="20"/>
       <c r="C31" s="33"/>
       <c r="D31" s="46" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
+    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="87"/>
       <c r="B32" s="20"/>
       <c r="C32" s="27"/>
       <c r="D32" s="46"/>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
-      <c r="B33" s="79" t="s">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="89"/>
+      <c r="B33" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="68" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="85"/>
+    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="90"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="90"/>
       <c r="B35" s="24" t="s">
         <v>5</v>
       </c>
@@ -3460,8 +3645,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="90"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
         <v>24</v>
@@ -3470,8 +3655,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="85"/>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="90"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
         <v>30</v>
@@ -3480,8 +3665,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="85"/>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="90"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
         <v>31</v>
@@ -3490,15 +3675,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="86"/>
+    <row r="39" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="91"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
       <c r="D39" s="31"/>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68" t="s">
-        <v>207</v>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="76" t="s">
+        <v>202</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>13</v>
@@ -3510,8 +3695,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="87"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
         <v>34</v>
@@ -3520,8 +3705,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="87"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
         <v>35</v>
@@ -3530,8 +3715,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="87"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
         <v>36</v>
@@ -3540,8 +3725,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="98"/>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="87"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21" t="s">
         <v>37</v>
@@ -3550,8 +3735,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="98"/>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="87"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21" t="s">
         <v>38</v>
@@ -3560,14 +3745,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="99"/>
+    <row r="46" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="88"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68" t="s">
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="76" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -3577,17 +3762,17 @@
         <v>148</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="69"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="77"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="77"/>
       <c r="B49" s="24" t="s">
         <v>7</v>
       </c>
@@ -3595,11 +3780,11 @@
         <v>40</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="77"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
         <v>41</v>
@@ -3608,14 +3793,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="69"/>
+    <row r="51" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="77"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="77"/>
       <c r="B52" s="24" t="s">
         <v>14</v>
       </c>
@@ -3623,11 +3808,11 @@
         <v>43</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="77"/>
       <c r="B53" s="20"/>
       <c r="C53" s="23" t="s">
         <v>44</v>
@@ -3636,14 +3821,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="69"/>
+    <row r="54" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="77"/>
       <c r="B54" s="20"/>
       <c r="C54" s="23"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="77"/>
       <c r="B55" s="24" t="s">
         <v>12</v>
       </c>
@@ -3651,11 +3836,11 @@
         <v>28</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="69"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="77"/>
       <c r="B56" s="20"/>
       <c r="C56" s="23" t="s">
         <v>45</v>
@@ -3664,14 +3849,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="69"/>
+    <row r="57" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="77"/>
       <c r="B57" s="20"/>
       <c r="C57" s="23"/>
       <c r="D57" s="31"/>
     </row>
-    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="69"/>
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="77"/>
       <c r="B58" s="24" t="s">
         <v>151</v>
       </c>
@@ -3679,11 +3864,11 @@
         <v>161</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="77"/>
       <c r="B59" s="20"/>
       <c r="C59" s="23" t="s">
         <v>162</v>
@@ -3692,14 +3877,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="69"/>
+    <row r="60" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="77"/>
       <c r="B60" s="29"/>
       <c r="C60" s="58"/>
       <c r="D60" s="31"/>
     </row>
-    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="69"/>
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="77"/>
       <c r="B61" s="24" t="s">
         <v>152</v>
       </c>
@@ -3707,11 +3892,11 @@
         <v>165</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="69"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="77"/>
       <c r="B62" s="20"/>
       <c r="C62" s="23" t="s">
         <v>166</v>
@@ -3720,20 +3905,20 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="88"/>
+    <row r="63" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="92"/>
       <c r="B63" s="29"/>
       <c r="C63" s="58"/>
       <c r="D63" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A11:A32"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A47:A63"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2.Editable Documentation/ISA.xlsx
+++ b/2.Editable Documentation/ISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processor Project\CCSS-Processor-Design\2.Editable Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\2.Editable Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58BF1B-EAE4-45AF-AF46-E8BB84FAC0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A2EE8-50CD-491E-80CA-8FF576063BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="237">
   <si>
     <t>OPCODE</t>
   </si>
@@ -666,9 +666,6 @@
     <t xml:space="preserve">INC_sel &lt;- DR[7:0], R[R1] &lt;- R[R1] + 1 </t>
   </si>
   <si>
-    <t>00010000 000xxxx</t>
-  </si>
-  <si>
     <t>R[R1] ← 0</t>
   </si>
   <si>
@@ -690,9 +687,6 @@
     <t xml:space="preserve">R[R1] ← AC </t>
   </si>
   <si>
-    <t>AC ← 0, Z ← 0</t>
-  </si>
-  <si>
     <t>AC ← AC + R[R1]</t>
   </si>
   <si>
@@ -708,13 +702,52 @@
     <t>AC ←  AC % R[R1]</t>
   </si>
   <si>
-    <t>00001101 00xxxxx</t>
-  </si>
-  <si>
-    <t>0001111 000xxxxx</t>
-  </si>
-  <si>
     <t>AC ← AC / R[R1] , if AC / R[R1] = 0       then Z ← 1, else Z ← 0</t>
+  </si>
+  <si>
+    <t>00001111 000xxxxx</t>
+  </si>
+  <si>
+    <t>00001101 000xxxxx</t>
+  </si>
+  <si>
+    <t>00010000 000xxxxx</t>
+  </si>
+  <si>
+    <t>AC ← 0</t>
+  </si>
+  <si>
+    <t>Clears AC</t>
+  </si>
+  <si>
+    <t>AC &lt;- 0</t>
+  </si>
+  <si>
+    <t>NOP_1</t>
+  </si>
+  <si>
+    <t>CLAC_1</t>
+  </si>
+  <si>
+    <t>PC &lt;- DR , Read</t>
+  </si>
+  <si>
+    <t>WTR_sel &lt;- DR[7:0] , A bus &lt;- AC</t>
+  </si>
+  <si>
+    <t>WTA_sel &lt;- DR[7:0] , AC &lt;- R[R1]</t>
+  </si>
+  <si>
+    <t>AR &lt;- DR, Read</t>
+  </si>
+  <si>
+    <t>DR &lt;- AC , Write</t>
+  </si>
+  <si>
+    <t>M &lt;- AC , Write</t>
+  </si>
+  <si>
+    <t>LDAC_7</t>
   </si>
 </sst>
 </file>
@@ -1315,6 +1348,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1348,6 +1489,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1357,142 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1815,15 +1848,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="82.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
     <col min="5" max="5" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>60</v>
@@ -1838,8 +1871,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="113"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1853,8 +1886,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="77"/>
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="113"/>
       <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
@@ -1868,8 +1901,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1885,8 +1918,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="113"/>
       <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
@@ -1900,8 +1933,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="113"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1915,8 +1948,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="113"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1930,8 +1963,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="113"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1945,7 +1978,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1960,7 +1993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -1977,8 +2010,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="114" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1994,8 +2027,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="115"/>
       <c r="B12" s="2" t="s">
         <v>134</v>
       </c>
@@ -2009,8 +2042,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="115"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2024,8 +2057,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="79"/>
+    <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="115"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
@@ -2039,8 +2072,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
+    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="115"/>
       <c r="B15" s="20" t="s">
         <v>169</v>
       </c>
@@ -2054,8 +2087,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="79"/>
+    <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115"/>
       <c r="B16" s="20" t="s">
         <v>151</v>
       </c>
@@ -2069,8 +2102,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="80"/>
+    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="116"/>
       <c r="B17" s="29" t="s">
         <v>152</v>
       </c>
@@ -2084,7 +2117,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
     </row>
   </sheetData>
@@ -2103,16 +2136,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2123,7 +2156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -2134,12 +2167,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
@@ -2150,7 +2183,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
         <v>22</v>
@@ -2159,7 +2192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
         <v>23</v>
@@ -2168,12 +2201,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>132</v>
       </c>
@@ -2184,7 +2217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
         <v>136</v>
@@ -2193,7 +2226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
         <v>137</v>
@@ -2202,7 +2235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>138</v>
@@ -2211,7 +2244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
         <v>139</v>
@@ -2220,7 +2253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>140</v>
@@ -2229,12 +2262,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>133</v>
       </c>
@@ -2245,7 +2278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>142</v>
@@ -2254,7 +2287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>143</v>
@@ -2263,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>144</v>
@@ -2272,7 +2305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>145</v>
@@ -2281,7 +2314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>146</v>
@@ -2290,7 +2323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>147</v>
@@ -2299,12 +2332,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
@@ -2315,12 +2348,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
     </row>
-    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
         <v>24</v>
@@ -2340,7 +2373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
         <v>30</v>
@@ -2349,7 +2382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
         <v>31</v>
@@ -2358,12 +2391,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>13</v>
       </c>
@@ -2374,7 +2407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
         <v>34</v>
@@ -2383,7 +2416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
         <v>35</v>
@@ -2392,7 +2425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
         <v>36</v>
@@ -2401,7 +2434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
         <v>37</v>
@@ -2410,7 +2443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
         <v>38</v>
@@ -2419,12 +2452,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
         <v>169</v>
       </c>
@@ -2435,7 +2468,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="21" t="s">
         <v>182</v>
@@ -2444,12 +2477,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" s="48" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
     </row>
-    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>134</v>
       </c>
@@ -2460,7 +2493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
         <v>149</v>
@@ -2469,19 +2502,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
     </row>
-    <row r="44" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
         <v>41</v>
@@ -2501,7 +2534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="63" t="s">
         <v>42</v>
@@ -2510,12 +2543,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
         <v>14</v>
       </c>
@@ -2526,7 +2559,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="23" t="s">
         <v>44</v>
@@ -2535,7 +2568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="23" t="s">
         <v>77</v>
@@ -2544,12 +2577,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20"/>
       <c r="B51" s="23"/>
       <c r="C51" s="22"/>
     </row>
-    <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="64" t="s">
         <v>12</v>
       </c>
@@ -2560,7 +2593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="23" t="s">
         <v>45</v>
@@ -2569,7 +2602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="23" t="s">
         <v>78</v>
@@ -2578,12 +2611,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="23"/>
       <c r="C55" s="22"/>
     </row>
-    <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>15</v>
       </c>
@@ -2594,7 +2627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="33" t="s">
         <v>47</v>
@@ -2603,12 +2636,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29"/>
       <c r="B58" s="27"/>
       <c r="C58" s="46"/>
     </row>
-    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="65" t="s">
         <v>16</v>
       </c>
@@ -2619,7 +2652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="33" t="s">
         <v>49</v>
@@ -2628,19 +2661,19 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="33"/>
       <c r="C61" s="46" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20"/>
       <c r="B62" s="27"/>
       <c r="C62" s="47"/>
     </row>
-    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
         <v>18</v>
       </c>
@@ -2651,7 +2684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="21" t="s">
         <v>74</v>
@@ -2660,19 +2693,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="29"/>
       <c r="B66" s="30"/>
       <c r="C66" s="31"/>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>151</v>
       </c>
@@ -2683,7 +2716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="23" t="s">
         <v>162</v>
@@ -2692,7 +2725,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="23" t="s">
         <v>163</v>
@@ -2701,12 +2734,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="29"/>
       <c r="B70" s="58"/>
       <c r="C70" s="31"/>
     </row>
-    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>152</v>
       </c>
@@ -2717,7 +2750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="23" t="s">
         <v>166</v>
@@ -2726,7 +2759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="23" t="s">
         <v>167</v>
@@ -2735,7 +2768,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="29"/>
       <c r="B74" s="58"/>
       <c r="C74" s="31"/>
@@ -2754,15 +2787,15 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="61.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="55" t="s">
         <v>89</v>
@@ -2774,8 +2807,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="117" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -2788,8 +2821,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="117"/>
       <c r="B3" s="49" t="s">
         <v>95</v>
       </c>
@@ -2800,8 +2833,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="117"/>
       <c r="B4" s="49" t="s">
         <v>97</v>
       </c>
@@ -2812,8 +2845,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="81"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="117"/>
       <c r="B5" s="49" t="s">
         <v>99</v>
       </c>
@@ -2824,8 +2857,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="81"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="117"/>
       <c r="B6" s="49" t="s">
         <v>101</v>
       </c>
@@ -2836,8 +2869,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="117"/>
       <c r="B7" s="49" t="s">
         <v>103</v>
       </c>
@@ -2848,46 +2881,46 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="119">
         <v>8</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="85"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="121"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="85"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="121"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="53" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="85"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="121"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="85"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="121"/>
       <c r="B12" s="51" t="s">
         <v>111</v>
       </c>
@@ -2898,8 +2931,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="85"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="121"/>
       <c r="B13" s="51" t="s">
         <v>113</v>
       </c>
@@ -2910,8 +2943,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="85"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="121"/>
       <c r="B14" s="51" t="s">
         <v>176</v>
       </c>
@@ -2922,8 +2955,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="85"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="121"/>
       <c r="B15" s="51" t="s">
         <v>150</v>
       </c>
@@ -2934,8 +2967,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="85"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="121"/>
       <c r="B16" s="52" t="s">
         <v>115</v>
       </c>
@@ -2946,8 +2979,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="86"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="122"/>
       <c r="B17" s="61" t="s">
         <v>174</v>
       </c>
@@ -2973,307 +3006,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C21AE-6AFB-4E00-A4E0-A8F64620D317}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" customWidth="1"/>
-    <col min="5" max="5" width="51.26953125" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="94"/>
-      <c r="B1" s="95" t="s">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="76"/>
+      <c r="B1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="102"/>
-      <c r="B2" s="124" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="123"/>
+      <c r="B2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="135"/>
-      <c r="B3" s="125" t="s">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="124"/>
+      <c r="B3" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="104" t="s">
+      <c r="E4" s="86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="126"/>
+      <c r="B5" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="105" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="121"/>
-      <c r="B5" s="126" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="104" t="s">
+      <c r="E5" s="86" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="126"/>
+      <c r="B6" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="126"/>
+      <c r="B7" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="105" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="121"/>
-      <c r="B6" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="121"/>
-      <c r="B7" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="104" t="s">
+      <c r="E7" s="86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="126"/>
+      <c r="B8" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="121"/>
-      <c r="B8" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="104" t="s">
+      <c r="E8" s="86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="126"/>
+      <c r="B9" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="105" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="121"/>
-      <c r="B9" s="126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="104" t="s">
+      <c r="E9" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="128"/>
+      <c r="B10" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="105" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="134"/>
-      <c r="B10" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="104" t="s">
+      <c r="E10" s="86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="101"/>
+      <c r="B11" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="102"/>
+      <c r="B12" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="105" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="122"/>
-      <c r="B11" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="107" t="s">
+      <c r="E14" s="94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="126"/>
+      <c r="B15" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="108" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="123"/>
-      <c r="B12" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="132" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="113" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="117" t="s">
+      <c r="E15" s="86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="126"/>
+      <c r="B16" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="113" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="121"/>
-      <c r="B15" s="126" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="104" t="s">
+      <c r="E16" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="126"/>
+      <c r="B17" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="105" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="121"/>
-      <c r="B16" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="104" t="s">
+      <c r="E17" s="99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="126"/>
+      <c r="B18" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="127"/>
+      <c r="B19" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="105" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="121"/>
-      <c r="B17" s="130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="114" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="118" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="121"/>
-      <c r="B18" s="130" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="133"/>
-      <c r="B19" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="100" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3290,22 +3323,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73B6321-4D66-4AEA-AB84-123E8D0581C0}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -3317,8 +3350,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="129"/>
       <c r="B2" s="73" t="s">
         <v>21</v>
       </c>
@@ -3329,8 +3362,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="90"/>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="130"/>
       <c r="B3" s="72"/>
       <c r="C3" s="21" t="s">
         <v>22</v>
@@ -3340,8 +3373,8 @@
       </c>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="90"/>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="130"/>
       <c r="B4" s="72"/>
       <c r="C4" s="21" t="s">
         <v>23</v>
@@ -3351,8 +3384,8 @@
       </c>
       <c r="H4" s="75"/>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="130"/>
       <c r="B5" s="72"/>
       <c r="C5" s="21" t="s">
         <v>203</v>
@@ -3361,32 +3394,32 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="91"/>
+    <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="130"/>
       <c r="B6" s="72"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="134"/>
+      <c r="B7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="90"/>
+    <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="130"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90"/>
+    <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="130"/>
       <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
@@ -3397,14 +3430,14 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="91"/>
+    <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="131"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="112" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -3414,227 +3447,211 @@
         <v>135</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="132"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="132"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
         <v>137</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="132"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>138</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="132"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
         <v>139</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="132"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
         <v>140</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="132"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="87"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="87"/>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="132"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="132"/>
+      <c r="B19" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="132"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="132"/>
+      <c r="B21" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="132"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="132"/>
+      <c r="B23" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="87"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="87"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="87"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
+      <c r="D23" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="132"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="87"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="132"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="87"/>
-      <c r="B26" s="24" t="s">
+      <c r="C25" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="132"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="132"/>
+      <c r="B27" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="132"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="132"/>
+      <c r="B29" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="87"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="87"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="47"/>
-    </row>
-    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="87"/>
-      <c r="B29" s="20" t="s">
+      <c r="D29" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="132"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="132"/>
+      <c r="B31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C31" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="87"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="87"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="87"/>
+      <c r="D31" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="132"/>
       <c r="B32" s="20"/>
       <c r="C32" s="27"/>
       <c r="D32" s="46"/>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="89"/>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="134"/>
       <c r="B33" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="90"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="130"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="90"/>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="130"/>
       <c r="B35" s="24" t="s">
         <v>5</v>
       </c>
@@ -3642,282 +3659,212 @@
         <v>29</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="90"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="90"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="90"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="131"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="132"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="91"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="76" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="133"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="112" t="s">
+        <v>6</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="87"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="113"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="87"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="87"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="113"/>
+      <c r="B42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="113"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="87"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="113"/>
       <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="87"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
-        <v>38</v>
+      <c r="C44" s="21"/>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="113"/>
+      <c r="B45" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="88"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="113"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="77"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="77"/>
-      <c r="B49" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="26" t="s">
+      <c r="C46" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="113"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="113"/>
+      <c r="B48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="77"/>
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="113"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="113"/>
       <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="77"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="31"/>
-    </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="77"/>
-      <c r="B52" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>43</v>
+      <c r="C50" s="23"/>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="113"/>
+      <c r="B51" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="113"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="D52" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="113"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="113"/>
+      <c r="B54" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="77"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="77"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="77"/>
-      <c r="B55" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="77"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="77"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="31"/>
-    </row>
-    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="77"/>
-      <c r="B58" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="77"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="77"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="77"/>
-      <c r="B61" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="77"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="23" t="s">
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="113"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D55" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="92"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="31"/>
+    <row r="56" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="135"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A11:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A47:A63"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A40:A56"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.Editable Documentation/ISA.xlsx
+++ b/2.Editable Documentation/ISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\2.Editable Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processor Project\CCSS-Processor-Design\2.Editable Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A2EE8-50CD-491E-80CA-8FF576063BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E3C9A-3590-4E57-A9CD-EE499206D139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -1513,9 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1523,6 +1520,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1848,15 +1848,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="82.36328125" customWidth="1"/>
     <col min="5" max="5" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>60</v>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="113"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="113"/>
       <c r="B3" s="36" t="s">
         <v>18</v>
@@ -1901,7 +1901,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="112" t="s">
         <v>3</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="113"/>
       <c r="B5" s="2" t="s">
         <v>133</v>
@@ -1933,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="113"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1948,7 +1948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="113"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -1963,7 +1963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="113"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1978,7 +1978,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1993,7 +1993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="114" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="115"/>
       <c r="B12" s="2" t="s">
         <v>134</v>
@@ -2042,7 +2042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="115"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -2057,7 +2057,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="115"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
@@ -2072,7 +2072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="115"/>
       <c r="B15" s="20" t="s">
         <v>169</v>
@@ -2087,7 +2087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="115"/>
       <c r="B16" s="20" t="s">
         <v>151</v>
@@ -2102,7 +2102,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="116"/>
       <c r="B17" s="29" t="s">
         <v>152</v>
@@ -2117,7 +2117,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
     </row>
   </sheetData>
@@ -2138,14 +2138,14 @@
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -2167,12 +2167,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
         <v>22</v>
@@ -2192,7 +2192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
         <v>23</v>
@@ -2201,12 +2201,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>132</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
         <v>136</v>
@@ -2226,7 +2226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
         <v>137</v>
@@ -2235,7 +2235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>138</v>
@@ -2244,7 +2244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
         <v>139</v>
@@ -2253,7 +2253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>140</v>
@@ -2262,12 +2262,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>133</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>142</v>
@@ -2287,7 +2287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>143</v>
@@ -2296,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>144</v>
@@ -2305,7 +2305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>145</v>
@@ -2314,7 +2314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>146</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>147</v>
@@ -2332,12 +2332,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
@@ -2348,12 +2348,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
         <v>24</v>
@@ -2373,7 +2373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
         <v>30</v>
@@ -2382,7 +2382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
         <v>31</v>
@@ -2391,12 +2391,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>13</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
         <v>34</v>
@@ -2416,7 +2416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
         <v>35</v>
@@ -2425,7 +2425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
         <v>36</v>
@@ -2434,7 +2434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
         <v>37</v>
@@ -2443,7 +2443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
         <v>38</v>
@@ -2452,12 +2452,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="64" t="s">
         <v>169</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="21" t="s">
         <v>182</v>
@@ -2477,12 +2477,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="48" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>134</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
         <v>149</v>
@@ -2502,19 +2502,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
     </row>
-    <row r="44" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="64" t="s">
         <v>7</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
         <v>41</v>
@@ -2534,7 +2534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
       <c r="B46" s="63" t="s">
         <v>42</v>
@@ -2543,12 +2543,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="64" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
       <c r="B49" s="23" t="s">
         <v>44</v>
@@ -2568,7 +2568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="20"/>
       <c r="B50" s="23" t="s">
         <v>77</v>
@@ -2577,12 +2577,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="23"/>
       <c r="C51" s="22"/>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="64" t="s">
         <v>12</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
       <c r="B53" s="23" t="s">
         <v>45</v>
@@ -2602,7 +2602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="B54" s="23" t="s">
         <v>78</v>
@@ -2611,12 +2611,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="20"/>
       <c r="B55" s="23"/>
       <c r="C55" s="22"/>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="33" t="s">
         <v>47</v>
@@ -2636,12 +2636,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29"/>
       <c r="B58" s="27"/>
       <c r="C58" s="46"/>
     </row>
-    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="65" t="s">
         <v>16</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
       <c r="B60" s="33" t="s">
         <v>49</v>
@@ -2661,19 +2661,19 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
       <c r="B61" s="33"/>
       <c r="C61" s="46" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="27"/>
       <c r="C62" s="47"/>
     </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="24" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="20"/>
       <c r="B64" s="21" t="s">
         <v>74</v>
@@ -2693,19 +2693,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="29"/>
       <c r="B66" s="30"/>
       <c r="C66" s="31"/>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="64" t="s">
         <v>151</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
       <c r="B68" s="23" t="s">
         <v>162</v>
@@ -2725,7 +2725,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="20"/>
       <c r="B69" s="23" t="s">
         <v>163</v>
@@ -2734,12 +2734,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="29"/>
       <c r="B70" s="58"/>
       <c r="C70" s="31"/>
     </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="64" t="s">
         <v>152</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="20"/>
       <c r="B72" s="23" t="s">
         <v>166</v>
@@ -2759,7 +2759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="20"/>
       <c r="B73" s="23" t="s">
         <v>167</v>
@@ -2768,7 +2768,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="29"/>
       <c r="B74" s="58"/>
       <c r="C74" s="31"/>
@@ -2787,15 +2787,15 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="61.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="48"/>
       <c r="B1" s="55" t="s">
         <v>89</v>
@@ -2807,7 +2807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="117" t="s">
         <v>92</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="117"/>
       <c r="B3" s="49" t="s">
         <v>95</v>
@@ -2833,7 +2833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="117"/>
       <c r="B4" s="49" t="s">
         <v>97</v>
@@ -2845,7 +2845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="117"/>
       <c r="B5" s="49" t="s">
         <v>99</v>
@@ -2857,7 +2857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="117"/>
       <c r="B6" s="49" t="s">
         <v>101</v>
@@ -2869,7 +2869,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="117"/>
       <c r="B7" s="49" t="s">
         <v>103</v>
@@ -2881,7 +2881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="120" t="s">
         <v>105</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="121"/>
       <c r="B9" s="118"/>
       <c r="C9" s="119"/>
@@ -2903,7 +2903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="121"/>
       <c r="B10" s="118"/>
       <c r="C10" s="119"/>
@@ -2911,7 +2911,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="121"/>
       <c r="B11" s="118"/>
       <c r="C11" s="119"/>
@@ -2919,7 +2919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="121"/>
       <c r="B12" s="51" t="s">
         <v>111</v>
@@ -2931,7 +2931,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="121"/>
       <c r="B13" s="51" t="s">
         <v>113</v>
@@ -2943,7 +2943,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="121"/>
       <c r="B14" s="51" t="s">
         <v>176</v>
@@ -2955,7 +2955,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="121"/>
       <c r="B15" s="51" t="s">
         <v>150</v>
@@ -2967,7 +2967,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="121"/>
       <c r="B16" s="52" t="s">
         <v>115</v>
@@ -2979,7 +2979,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="122"/>
       <c r="B17" s="61" t="s">
         <v>174</v>
@@ -3010,16 +3010,16 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="51.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" customWidth="1"/>
+    <col min="5" max="5" width="51.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="76"/>
       <c r="B1" s="77" t="s">
         <v>60</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="123"/>
       <c r="B2" s="103" t="s">
         <v>8</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="124"/>
       <c r="B3" s="104" t="s">
         <v>18</v>
@@ -3064,7 +3064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="126"/>
       <c r="B5" s="105" t="s">
         <v>185</v>
@@ -3096,7 +3096,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="126"/>
       <c r="B6" s="105" t="s">
         <v>187</v>
@@ -3111,7 +3111,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="126"/>
       <c r="B7" s="105" t="s">
         <v>133</v>
@@ -3126,7 +3126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="126"/>
       <c r="B8" s="105" t="s">
         <v>186</v>
@@ -3141,7 +3141,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="126"/>
       <c r="B9" s="105" t="s">
         <v>16</v>
@@ -3156,7 +3156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="128"/>
       <c r="B10" s="105" t="s">
         <v>15</v>
@@ -3171,7 +3171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="101"/>
       <c r="B11" s="106" t="s">
         <v>17</v>
@@ -3186,7 +3186,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="102"/>
       <c r="B12" s="107" t="s">
         <v>5</v>
@@ -3201,7 +3201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="111" t="s">
         <v>202</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="125" t="s">
         <v>6</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="126"/>
       <c r="B15" s="105" t="s">
         <v>134</v>
@@ -3250,7 +3250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="126"/>
       <c r="B16" s="105" t="s">
         <v>14</v>
@@ -3265,7 +3265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="126"/>
       <c r="B17" s="109" t="s">
         <v>12</v>
@@ -3280,7 +3280,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="126"/>
       <c r="B18" s="109" t="s">
         <v>151</v>
@@ -3295,7 +3295,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="127"/>
       <c r="B19" s="110" t="s">
         <v>152</v>
@@ -3325,20 +3325,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73B6321-4D66-4AEA-AB84-123E8D0581C0}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="70"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="129"/>
       <c r="B2" s="73" t="s">
         <v>21</v>
@@ -3362,7 +3362,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="130"/>
       <c r="B3" s="72"/>
       <c r="C3" s="21" t="s">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="130"/>
       <c r="B4" s="72"/>
       <c r="C4" s="21" t="s">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="H4" s="75"/>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="130"/>
       <c r="B5" s="72"/>
       <c r="C5" s="21" t="s">
@@ -3394,14 +3394,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="130"/>
       <c r="B6" s="72"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
+    <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="133"/>
       <c r="B7" s="66" t="s">
         <v>8</v>
       </c>
@@ -3412,13 +3412,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="130"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="130"/>
       <c r="B9" s="24" t="s">
         <v>18</v>
@@ -3430,13 +3430,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="131"/>
+    <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="134"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="112" t="s">
         <v>3</v>
       </c>
@@ -3450,8 +3450,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="131"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
         <v>136</v>
@@ -3460,8 +3460,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="132"/>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="131"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
         <v>137</v>
@@ -3470,8 +3470,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
+    <row r="14" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="131"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>138</v>
@@ -3480,8 +3480,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="132"/>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="131"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
         <v>139</v>
@@ -3490,8 +3490,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="132"/>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="131"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
         <v>140</v>
@@ -3500,8 +3500,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="132"/>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="131"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
         <v>236</v>
@@ -3510,42 +3510,42 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="132"/>
+    <row r="18" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="131"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="132"/>
+    <row r="19" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="131"/>
       <c r="B19" s="24" t="s">
         <v>185</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
     </row>
-    <row r="20" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="132"/>
+    <row r="20" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="131"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="132"/>
+    <row r="21" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="131"/>
       <c r="B21" s="20" t="s">
         <v>187</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="132"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="131"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="132"/>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="131"/>
       <c r="B23" s="24" t="s">
         <v>133</v>
       </c>
@@ -3556,8 +3556,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="132"/>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="131"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
         <v>142</v>
@@ -3566,8 +3566,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132"/>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="131"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
         <v>143</v>
@@ -3576,28 +3576,28 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="132"/>
+    <row r="26" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="131"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
     </row>
-    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="132"/>
+    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="131"/>
       <c r="B27" s="24" t="s">
         <v>186</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="132"/>
+    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="131"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="132"/>
+    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="131"/>
       <c r="B29" s="24" t="s">
         <v>15</v>
       </c>
@@ -3608,14 +3608,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="132"/>
+    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="131"/>
       <c r="B30" s="29"/>
       <c r="C30" s="71"/>
       <c r="D30" s="47"/>
     </row>
-    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132"/>
+    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="131"/>
       <c r="B31" s="20" t="s">
         <v>16</v>
       </c>
@@ -3626,14 +3626,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="132"/>
+    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="131"/>
       <c r="B32" s="20"/>
       <c r="C32" s="27"/>
       <c r="D32" s="46"/>
     </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="133"/>
       <c r="B33" s="66" t="s">
         <v>17</v>
       </c>
@@ -3644,13 +3644,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="130"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="130"/>
       <c r="B35" s="24" t="s">
         <v>5</v>
@@ -3662,13 +3662,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="131"/>
+    <row r="36" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="134"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
     </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="112" t="s">
         <v>202</v>
       </c>
@@ -3682,8 +3682,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="132"/>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="131"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
         <v>37</v>
@@ -3692,13 +3692,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="133"/>
+    <row r="39" spans="1:4" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="132"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
     </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="112" t="s">
         <v>6</v>
       </c>
@@ -3712,13 +3712,13 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="113"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
     </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="113"/>
       <c r="B42" s="24" t="s">
         <v>7</v>
@@ -3730,7 +3730,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="113"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
@@ -3740,13 +3740,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="113"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="31"/>
     </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="113"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -3758,7 +3758,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="113"/>
       <c r="B46" s="20"/>
       <c r="C46" s="23" t="s">
@@ -3768,13 +3768,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="113"/>
       <c r="B47" s="20"/>
       <c r="C47" s="23"/>
       <c r="D47" s="22"/>
     </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="113"/>
       <c r="B48" s="24" t="s">
         <v>12</v>
@@ -3786,7 +3786,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="113"/>
       <c r="B49" s="20"/>
       <c r="C49" s="23" t="s">
@@ -3796,13 +3796,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="113"/>
       <c r="B50" s="20"/>
       <c r="C50" s="23"/>
       <c r="D50" s="31"/>
     </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="113"/>
       <c r="B51" s="24" t="s">
         <v>151</v>
@@ -3814,7 +3814,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="113"/>
       <c r="B52" s="20"/>
       <c r="C52" s="23" t="s">
@@ -3824,13 +3824,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="113"/>
       <c r="B53" s="29"/>
       <c r="C53" s="58"/>
       <c r="D53" s="31"/>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="113"/>
       <c r="B54" s="24" t="s">
         <v>152</v>
@@ -3842,7 +3842,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="113"/>
       <c r="B55" s="20"/>
       <c r="C55" s="23" t="s">
@@ -3852,7 +3852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="135"/>
       <c r="B56" s="29"/>
       <c r="C56" s="58"/>

--- a/2.Editable Documentation/ISA.xlsx
+++ b/2.Editable Documentation/ISA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processor Project\CCSS-Processor-Design\2.Editable Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E3C9A-3590-4E57-A9CD-EE499206D139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9B9E5A-0170-4AD7-94F1-01C680FB6D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="258">
   <si>
     <t>OPCODE</t>
   </si>
@@ -748,6 +748,69 @@
   </si>
   <si>
     <t>LDAC_7</t>
+  </si>
+  <si>
+    <t>LDAC_x</t>
+  </si>
+  <si>
+    <t>LDACREG_1</t>
+  </si>
+  <si>
+    <t>LDACREG_6</t>
+  </si>
+  <si>
+    <t>WTR_sel &lt;- DR[7:0] , AR &lt;- R[R1]</t>
+  </si>
+  <si>
+    <t>LDACREG_x</t>
+  </si>
+  <si>
+    <t>LDACREG_7</t>
+  </si>
+  <si>
+    <t>LDACMULTI_1</t>
+  </si>
+  <si>
+    <t>LDACMULTI_5</t>
+  </si>
+  <si>
+    <t>LDACMULTI_x</t>
+  </si>
+  <si>
+    <t>Idle, Skip</t>
+  </si>
+  <si>
+    <t>LDACMULTI_8</t>
+  </si>
+  <si>
+    <t>LDACMULTI_11</t>
+  </si>
+  <si>
+    <t>LDACMULTI_15</t>
+  </si>
+  <si>
+    <t>LDACMULTI_16</t>
+  </si>
+  <si>
+    <t>STACREG_1</t>
+  </si>
+  <si>
+    <t>STACREG_2</t>
+  </si>
+  <si>
+    <t>STACREG_3</t>
+  </si>
+  <si>
+    <t>STACREG_4</t>
+  </si>
+  <si>
+    <t>STACREG_5</t>
+  </si>
+  <si>
+    <t>STACREG_6</t>
+  </si>
+  <si>
+    <t>STACREG_7</t>
   </si>
 </sst>
 </file>
@@ -876,7 +939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1155,11 +1218,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,9 +1436,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,6 +1619,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,7 +1982,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="113"/>
+      <c r="A2" s="112"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +1997,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="113"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
@@ -1902,7 +2012,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="111" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1919,7 +2029,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="113"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
@@ -1934,7 +2044,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="113"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1949,7 +2059,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1964,7 +2074,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2121,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="113" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -2028,7 +2138,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="115"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="2" t="s">
         <v>134</v>
       </c>
@@ -2043,7 +2153,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="115"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2168,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="115"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2183,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="115"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="20" t="s">
         <v>169</v>
       </c>
@@ -2088,7 +2198,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="115"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="20" t="s">
         <v>151</v>
       </c>
@@ -2103,7 +2213,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="116"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="29" t="s">
         <v>152</v>
       </c>
@@ -2808,7 +2918,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -2822,7 +2932,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="117"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="49" t="s">
         <v>95</v>
       </c>
@@ -2834,7 +2944,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="117"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="49" t="s">
         <v>97</v>
       </c>
@@ -2846,7 +2956,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="117"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="49" t="s">
         <v>99</v>
       </c>
@@ -2858,7 +2968,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="117"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="49" t="s">
         <v>101</v>
       </c>
@@ -2870,7 +2980,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="117"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="49" t="s">
         <v>103</v>
       </c>
@@ -2882,13 +2992,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="119">
+      <c r="C8" s="118">
         <v>8</v>
       </c>
       <c r="D8" s="52" t="s">
@@ -2896,31 +3006,31 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="121"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="53" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="121"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="53" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="121"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="121"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="51" t="s">
         <v>111</v>
       </c>
@@ -2932,7 +3042,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="121"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="51" t="s">
         <v>113</v>
       </c>
@@ -2944,7 +3054,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="121"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="51" t="s">
         <v>176</v>
       </c>
@@ -2956,7 +3066,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="121"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="51" t="s">
         <v>150</v>
       </c>
@@ -2968,7 +3078,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="121"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="52" t="s">
         <v>115</v>
       </c>
@@ -2980,7 +3090,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="122"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="61" t="s">
         <v>174</v>
       </c>
@@ -3020,293 +3130,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="76" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123"/>
-      <c r="B2" s="103" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="124"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="82" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="85" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="126"/>
-      <c r="B5" s="105" t="s">
+      <c r="A5" s="125"/>
+      <c r="B5" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="85" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="126"/>
-      <c r="B6" s="105" t="s">
+      <c r="A6" s="125"/>
+      <c r="B6" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="85" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="126"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="125"/>
+      <c r="B7" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="126"/>
-      <c r="B8" s="105" t="s">
+      <c r="A8" s="125"/>
+      <c r="B8" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="126"/>
-      <c r="B9" s="105" t="s">
+      <c r="A9" s="125"/>
+      <c r="B9" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="85" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="128"/>
-      <c r="B10" s="105" t="s">
+      <c r="A10" s="127"/>
+      <c r="B10" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="101"/>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="88" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="102"/>
-      <c r="B12" s="107" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="82" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="93" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="93" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="126"/>
-      <c r="B15" s="105" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="85" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="126"/>
-      <c r="B16" s="105" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="85" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="126"/>
-      <c r="B17" s="109" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="98" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="126"/>
-      <c r="B18" s="109" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="98" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="127"/>
-      <c r="B19" s="110" t="s">
+      <c r="A19" s="126"/>
+      <c r="B19" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="99" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3323,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73B6321-4D66-4AEA-AB84-123E8D0581C0}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3351,7 +3461,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="129"/>
+      <c r="A2" s="128"/>
       <c r="B2" s="73" t="s">
         <v>21</v>
       </c>
@@ -3363,7 +3473,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="130"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="72"/>
       <c r="C3" s="21" t="s">
         <v>22</v>
@@ -3371,21 +3481,21 @@
       <c r="D3" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="72"/>
       <c r="C4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="72"/>
       <c r="C5" s="21" t="s">
         <v>203</v>
@@ -3395,13 +3505,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="130"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="72"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="133"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="66" t="s">
         <v>8</v>
       </c>
@@ -3413,13 +3523,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="130"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="130"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
@@ -3431,13 +3541,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="134"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="111" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -3451,422 +3561,570 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="131"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="131"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="131"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="130"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="130"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="130"/>
+      <c r="B16" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="130"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="131"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="22" t="s">
+    <row r="18" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="130"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="130"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="136" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="130"/>
+      <c r="B20" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="130"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="131"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="131"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="131"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="131"/>
-      <c r="B19" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="131"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="131"/>
-      <c r="B21" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="131"/>
+    <row r="22" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="130"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="131"/>
-      <c r="B23" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="131"/>
+      <c r="C22" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="130"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="130"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="131"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="130"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="130"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="130"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="130"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="130"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="136" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="130"/>
+      <c r="B30" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="130"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="130"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D32" s="22" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="131"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="131"/>
-      <c r="B27" s="24" t="s">
+    <row r="33" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="130"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="130"/>
+      <c r="B34" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="131"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="131"/>
-      <c r="B29" s="24" t="s">
+      <c r="C34" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="130"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="130"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="130"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="141"/>
+    </row>
+    <row r="38" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="130"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="138" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="141"/>
+    </row>
+    <row r="39" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="130"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="130"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="138" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="140" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="141"/>
+    </row>
+    <row r="41" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="130"/>
+      <c r="B41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C41" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D41" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="131"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="47"/>
-    </row>
-    <row r="31" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="131"/>
-      <c r="B31" s="20" t="s">
+    <row r="42" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="130"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="130"/>
+      <c r="B43" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C43" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D43" s="28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="131"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="46"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="133"/>
-      <c r="B33" s="66" t="s">
+    <row r="44" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="130"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="46"/>
+    </row>
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="132"/>
+      <c r="B45" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C45" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D45" s="68" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="130"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="130"/>
-      <c r="B35" s="24" t="s">
+    <row r="46" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="129"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="129"/>
+      <c r="B47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C47" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D47" s="26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="134"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="112" t="s">
+    <row r="48" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="133"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B49" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C49" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D49" s="26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="131"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="130"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D50" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="132"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="112" t="s">
+    <row r="51" spans="1:4" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="131"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C52" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D52" s="26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="113"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="113"/>
-      <c r="B42" s="24" t="s">
+    <row r="53" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="112"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="112"/>
+      <c r="B54" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C54" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D54" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="113"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="112"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D55" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="113"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="113"/>
-      <c r="B45" s="24" t="s">
+    <row r="56" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="112"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="112"/>
+      <c r="B57" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C57" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="113"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="23" t="s">
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="112"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D58" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="113"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="113"/>
-      <c r="B48" s="24" t="s">
+    <row r="59" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="112"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="112"/>
+      <c r="B60" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D60" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="113"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="23" t="s">
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="112"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D61" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="113"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="31"/>
-    </row>
-    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="113"/>
-      <c r="B51" s="24" t="s">
+    <row r="62" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="112"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="112"/>
+      <c r="B63" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D63" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="113"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="23" t="s">
+    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="112"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D64" s="22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="113"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="31"/>
-    </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="113"/>
-      <c r="B54" s="24" t="s">
+    <row r="65" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="112"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="112"/>
+      <c r="B66" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C66" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D66" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="113"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="23" t="s">
+    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="112"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D67" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="135"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="31"/>
+    <row r="68" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="134"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A11:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A40:A56"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A11:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A52:A68"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2.Editable Documentation/ISA.xlsx
+++ b/2.Editable Documentation/ISA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Processor Project\CCSS-Processor-Design\2.Editable Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9B9E5A-0170-4AD7-94F1-01C680FB6D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD94CAF-7C49-4D68-ADD2-111CBAFF06C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="264">
   <si>
     <t>OPCODE</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Register</t>
   </si>
   <si>
-    <t>Length(bits)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>IR</t>
   </si>
   <si>
-    <t>Stores the OpCode of the current instruction</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
@@ -342,12 +336,6 @@
     <t>Stores data read/written to the memory</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Temporary resigter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Z </t>
   </si>
   <si>
@@ -579,9 +567,6 @@
     <t xml:space="preserve"> WTR_sel &lt;- DR[4:0] , A bus &lt;- AC</t>
   </si>
   <si>
-    <t>8 , 16</t>
-  </si>
-  <si>
     <t>ALU_op &lt;- 110</t>
   </si>
   <si>
@@ -603,36 +588,6 @@
     <t>LDACMULTI</t>
   </si>
   <si>
-    <t>00000011 000xxxxx</t>
-  </si>
-  <si>
-    <t>00000101 a</t>
-  </si>
-  <si>
-    <t>00000110 000xxxxx</t>
-  </si>
-  <si>
-    <t>00000111 000xxxxx</t>
-  </si>
-  <si>
-    <t>00001000 000xxxxx</t>
-  </si>
-  <si>
-    <t>00001010 a</t>
-  </si>
-  <si>
-    <t>00001011 a</t>
-  </si>
-  <si>
-    <t>00010001 xxxxxxxx</t>
-  </si>
-  <si>
-    <t>00001001</t>
-  </si>
-  <si>
-    <t>00010010 xxxxxxxx</t>
-  </si>
-  <si>
     <t>Store value in AC to the given memory address in any register R1.</t>
   </si>
   <si>
@@ -705,15 +660,6 @@
     <t>AC ← AC / R[R1] , if AC / R[R1] = 0       then Z ← 1, else Z ← 0</t>
   </si>
   <si>
-    <t>00001111 000xxxxx</t>
-  </si>
-  <si>
-    <t>00001101 000xxxxx</t>
-  </si>
-  <si>
-    <t>00010000 000xxxxx</t>
-  </si>
-  <si>
     <t>AC ← 0</t>
   </si>
   <si>
@@ -811,13 +757,85 @@
   </si>
   <si>
     <t>STACREG_7</t>
+  </si>
+  <si>
+    <t>Stores the Opcode of the current instruction</t>
+  </si>
+  <si>
+    <t>Length (bits)</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>AC ← AC - R[R1]</t>
+  </si>
+  <si>
+    <t>Substracts any given register R1 to AC.</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000100 a</t>
+  </si>
+  <si>
+    <t>00001111</t>
+  </si>
+  <si>
+    <t>00010000 a</t>
+  </si>
+  <si>
+    <t>INSTRUCTION CODE</t>
+  </si>
+  <si>
+    <t>00001110 000000xxxx</t>
+  </si>
+  <si>
+    <t>00001010 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00001011 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00010001 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00010011 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00010010 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00000111 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00010100 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00001101 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00001001 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00001000 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00000110 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00000101 00xxxxxxxx</t>
+  </si>
+  <si>
+    <t>16 , 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,14 +870,6 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
@@ -867,14 +877,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -939,7 +941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1020,17 +1022,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1071,69 +1062,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1148,37 +1076,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1253,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,39 +1232,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,265 +1276,266 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,12 +1880,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="112"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1997,12 +1895,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="112"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>80</v>
@@ -2012,14 +1910,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="116" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
@@ -2029,12 +1927,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="112"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -2044,12 +1942,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="112"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>63</v>
@@ -2059,12 +1957,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="112"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>64</v>
@@ -2074,18 +1972,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="112"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2094,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>69</v>
@@ -2111,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>70</v>
@@ -2121,14 +2019,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>75</v>
@@ -2138,12 +2036,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>83</v>
@@ -2153,12 +2051,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>76</v>
@@ -2168,12 +2066,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>85</v>
@@ -2183,52 +2081,52 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C16" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="E16" s="37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="48" customFormat="1" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="115"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+      <c r="A18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2236,7 +2134,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A11:A17"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2318,10 +2216,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>27</v>
@@ -2330,7 +2228,7 @@
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>56</v>
@@ -2339,7 +2237,7 @@
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>27</v>
@@ -2348,7 +2246,7 @@
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>57</v>
@@ -2357,7 +2255,7 @@
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>26</v>
@@ -2366,7 +2264,7 @@
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>51</v>
@@ -2379,10 +2277,10 @@
     </row>
     <row r="15" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>27</v>
@@ -2391,7 +2289,7 @@
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>56</v>
@@ -2400,7 +2298,7 @@
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>27</v>
@@ -2409,7 +2307,7 @@
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>57</v>
@@ -2418,7 +2316,7 @@
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>58</v>
@@ -2427,7 +2325,7 @@
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>54</v>
@@ -2436,10 +2334,10 @@
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2455,7 +2353,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2568,23 +2466,23 @@
       <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="64" t="s">
-        <v>169</v>
+      <c r="A37" s="52" t="s">
+        <v>165</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="48" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2594,10 +2492,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>27</v>
@@ -2606,7 +2504,7 @@
     <row r="41" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>72</v>
@@ -2625,7 +2523,7 @@
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -2646,7 +2544,7 @@
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="22" t="s">
@@ -2659,7 +2557,7 @@
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -2693,7 +2591,7 @@
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -2743,7 +2641,7 @@
         <v>47</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2752,7 +2650,7 @@
       <c r="C58" s="46"/>
     </row>
     <row r="59" spans="1:3" s="48" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="32" t="s">
@@ -2768,14 +2666,14 @@
         <v>49</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
       <c r="B61" s="33"/>
       <c r="C61" s="46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2816,11 +2714,11 @@
       <c r="C66" s="31"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="64" t="s">
-        <v>151</v>
+      <c r="A67" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>52</v>
@@ -2829,7 +2727,7 @@
     <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
       <c r="B68" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>62</v>
@@ -2838,23 +2736,23 @@
     <row r="69" spans="1:3" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="20"/>
       <c r="B69" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="29"/>
-      <c r="B70" s="58"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="64" t="s">
-        <v>152</v>
+      <c r="A71" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>52</v>
@@ -2863,7 +2761,7 @@
     <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="20"/>
       <c r="B72" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>62</v>
@@ -2872,15 +2770,15 @@
     <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="20"/>
       <c r="B73" s="23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="29"/>
-      <c r="B74" s="58"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="31"/>
     </row>
   </sheetData>
@@ -2891,543 +2789,547 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51276C7B-AB3B-47C6-8AF2-E7F8CBB216C3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="61.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="49.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:4" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="106"/>
+      <c r="B1" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="57" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="121" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="B2" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="C2" s="108">
+        <v>16</v>
+      </c>
+      <c r="D2" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="50">
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="121"/>
+      <c r="B3" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="108">
         <v>16</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="116"/>
-      <c r="B3" s="49" t="s">
+      <c r="D3" s="111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="121"/>
+      <c r="B4" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="50">
-        <v>8</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C4" s="108">
+        <v>16</v>
+      </c>
+      <c r="D4" s="111" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="116"/>
-      <c r="B4" s="49" t="s">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="121"/>
+      <c r="B5" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C5" s="108">
         <v>16</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D5" s="111" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="116"/>
-      <c r="B5" s="49" t="s">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="121"/>
+      <c r="B6" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="50">
-        <v>8</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="C6" s="108">
+        <v>1</v>
+      </c>
+      <c r="D6" s="111" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="116"/>
-      <c r="B6" s="49" t="s">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="50">
-        <v>8</v>
-      </c>
-      <c r="D6" s="49" t="s">
+      <c r="B7" s="122" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="116"/>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="123">
+        <v>16</v>
+      </c>
+      <c r="D7" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="50">
-        <v>1</v>
-      </c>
-      <c r="D7" s="49" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="111" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="119" t="s">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="117" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="118">
-        <v>8</v>
-      </c>
-      <c r="D8" s="52" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="121"/>
+      <c r="B11" s="107" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="120"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="53" t="s">
+      <c r="C11" s="108">
+        <v>16</v>
+      </c>
+      <c r="D11" s="111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="120"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="53" t="s">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="121"/>
+      <c r="B12" s="107" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="120"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="54" t="s">
+      <c r="C12" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="120"/>
-      <c r="B12" s="51" t="s">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="121"/>
+      <c r="B13" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="108">
+        <v>16</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="121"/>
+      <c r="B14" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="108">
+        <v>16</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="121"/>
+      <c r="B15" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="50">
-        <v>8</v>
-      </c>
-      <c r="D12" s="49" t="s">
+      <c r="C15" s="108">
+        <v>16</v>
+      </c>
+      <c r="D15" s="111" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="120"/>
-      <c r="B13" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="120"/>
-      <c r="B14" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="50">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="121"/>
+      <c r="B16" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="110">
         <v>16</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="120"/>
-      <c r="B15" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="50">
-        <v>16</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="120"/>
-      <c r="B16" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="60">
-        <v>16</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="121"/>
-      <c r="B17" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="62">
-        <v>8</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>175</v>
+      <c r="D16" s="112" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A7:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C21AE-6AFB-4E00-A4E0-A8F64620D317}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.90625" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="1:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="63"/>
+      <c r="B1" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="95" t="s">
+      <c r="C2" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="67" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="123"/>
-      <c r="B3" s="103" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="82" t="s">
+      <c r="C3" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="70" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="85" t="s">
+      <c r="B4" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="127"/>
+      <c r="B5" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="127"/>
+      <c r="B6" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="127"/>
+      <c r="B7" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="127"/>
+      <c r="B8" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="127"/>
+      <c r="B9" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="129"/>
+      <c r="B10" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="72" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="125"/>
-      <c r="B5" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="125"/>
-      <c r="B6" s="104" t="s">
+      <c r="E10" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="88"/>
+      <c r="B11" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="89"/>
+      <c r="B12" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="85" t="s">
+      <c r="B13" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="85" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="125"/>
-      <c r="B7" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="125"/>
-      <c r="B8" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="125"/>
-      <c r="B9" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
-      <c r="B10" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
-      <c r="B11" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="101"/>
-      <c r="B12" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="110" t="s">
+      <c r="E14" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="127"/>
+      <c r="B15" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="127"/>
+      <c r="B16" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="97" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="125"/>
-      <c r="B15" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="85" t="s">
+      <c r="E16" s="73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="125"/>
-      <c r="B16" s="104" t="s">
+    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="127"/>
+      <c r="B17" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="85" t="s">
+      <c r="C17" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="125"/>
-      <c r="B17" s="108" t="s">
+    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="127"/>
+      <c r="B18" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="98" t="s">
+      <c r="C18" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="125"/>
-      <c r="B18" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="126"/>
-      <c r="B19" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="99" t="s">
-        <v>160</v>
+    <row r="19" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="127"/>
+      <c r="B19" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="128"/>
+      <c r="B20" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="A4:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3435,21 +3337,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73B6321-4D66-4AEA-AB84-123E8D0581C0}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.90625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="57" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="8" max="8" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="70"/>
+      <c r="A1" s="58"/>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3461,75 +3363,75 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="128"/>
-      <c r="B2" s="73" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="61" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="74"/>
+        <v>189</v>
+      </c>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="129"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="74"/>
+        <v>190</v>
+      </c>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="129"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="129"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:8" s="48" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="132"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="129"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
@@ -3537,324 +3439,324 @@
         <v>50</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="133"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="116" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="130"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="130"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="130"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="130"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:8" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="130"/>
-      <c r="B16" s="137" t="s">
-        <v>185</v>
+      <c r="A16" s="132"/>
+      <c r="B16" s="101" t="s">
+        <v>180</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="130"/>
-      <c r="B17" s="135"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="21" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="135"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="130"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="136" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="130"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="130"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="130"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="130"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="130"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="130"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="130"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="130"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="130"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="136" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="130"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="100" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="130"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="130"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="130"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="130"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="130"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="130"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="130"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="130"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="141"/>
+        <v>236</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" s="105"/>
     </row>
     <row r="38" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="130"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="138" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="E38" s="141"/>
+      <c r="C38" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="105"/>
     </row>
     <row r="39" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="130"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="20"/>
-      <c r="C39" s="138" t="s">
-        <v>256</v>
+      <c r="C39" s="102" t="s">
+        <v>238</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="130"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="138" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="140" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="141"/>
+      <c r="C40" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="105"/>
     </row>
     <row r="41" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="130"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="24" t="s">
         <v>15</v>
       </c>
@@ -3862,17 +3764,17 @@
         <v>46</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="130"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="29"/>
-      <c r="C42" s="71"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="47"/>
     </row>
     <row r="43" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="130"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="20" t="s">
         <v>16</v>
       </c>
@@ -3880,35 +3782,35 @@
         <v>48</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="130"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="20"/>
       <c r="C44" s="27"/>
       <c r="D44" s="46"/>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="132"/>
-      <c r="B45" s="66" t="s">
+      <c r="A45" s="134"/>
+      <c r="B45" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>227</v>
+      <c r="C45" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="129"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="129"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="24" t="s">
         <v>5</v>
       </c>
@@ -3916,18 +3818,18 @@
         <v>29</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="133"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="111" t="s">
-        <v>202</v>
+      <c r="A49" s="116" t="s">
+        <v>187</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>13</v>
@@ -3936,47 +3838,47 @@
         <v>33</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="130"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="131"/>
+      <c r="A51" s="133"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="111" t="s">
+      <c r="A52" s="116" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="112"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="112"/>
+      <c r="A54" s="117"/>
       <c r="B54" s="24" t="s">
         <v>7</v>
       </c>
@@ -3984,11 +3886,11 @@
         <v>40</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="112"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
         <v>41</v>
@@ -3998,13 +3900,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="112"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="112"/>
+      <c r="A57" s="117"/>
       <c r="B57" s="24" t="s">
         <v>14</v>
       </c>
@@ -4012,11 +3914,11 @@
         <v>43</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="112"/>
+      <c r="A58" s="117"/>
       <c r="B58" s="20"/>
       <c r="C58" s="23" t="s">
         <v>44</v>
@@ -4026,13 +3928,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="112"/>
+      <c r="A59" s="117"/>
       <c r="B59" s="20"/>
       <c r="C59" s="23"/>
       <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="112"/>
+      <c r="A60" s="117"/>
       <c r="B60" s="24" t="s">
         <v>12</v>
       </c>
@@ -4040,11 +3942,11 @@
         <v>28</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="112"/>
+      <c r="A61" s="117"/>
       <c r="B61" s="20"/>
       <c r="C61" s="23" t="s">
         <v>45</v>
@@ -4054,65 +3956,65 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="112"/>
+      <c r="A62" s="117"/>
       <c r="B62" s="20"/>
       <c r="C62" s="23"/>
       <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="112"/>
+      <c r="A63" s="117"/>
       <c r="B63" s="24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="112"/>
+      <c r="A64" s="117"/>
       <c r="B64" s="20"/>
       <c r="C64" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="112"/>
+      <c r="A65" s="117"/>
       <c r="B65" s="29"/>
-      <c r="C65" s="58"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="112"/>
+      <c r="A66" s="117"/>
       <c r="B66" s="24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="112"/>
+      <c r="A67" s="117"/>
       <c r="B67" s="20"/>
       <c r="C67" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="134"/>
+      <c r="A68" s="136"/>
       <c r="B68" s="29"/>
-      <c r="C68" s="58"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="31"/>
     </row>
   </sheetData>
@@ -4124,7 +4026,7 @@
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
